--- a/metaData/tanzania-2014_vignettes_codebook.xlsx
+++ b/metaData/tanzania-2014_vignettes_codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Box Sync\WB Work\WB Github Repo\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Documents\GitHub\SDI-Health\metaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D48AAC6C-3C5E-46CE-A9E2-4FD9A5A82DF2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D85EB912-B4DE-42C6-91CE-6E16B3AF8481}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21143" windowWidth="7485" windowHeight="21143" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4005,9 +4005,6 @@
     <t>skip_eclampsia</t>
   </si>
   <si>
-    <t>Did not do eclampsia vignette</t>
-  </si>
-  <si>
     <t>skip_diarrhea</t>
   </si>
   <si>
@@ -4177,6 +4174,9 @@
   </si>
   <si>
     <t>Did not do malaria+anemia vignette</t>
+  </si>
+  <si>
+    <t>Did not do pre-eclampsia vignette</t>
   </si>
 </sst>
 </file>
@@ -4749,8 +4749,8 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
@@ -4781,7 +4781,7 @@
         <v>1004</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>1300</v>
@@ -4793,7 +4793,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>664</v>
@@ -4805,7 +4805,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>1301</v>
@@ -4817,7 +4817,7 @@
         <v>915</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>1303</v>
@@ -4826,10 +4826,10 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>1332</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>1333</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>1302</v>
@@ -4841,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="13"/>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="13"/>
@@ -4861,7 +4861,7 @@
         <v>1305</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>1304</v>
@@ -4875,7 +4875,7 @@
         <v>916</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>665</v>
@@ -4887,7 +4887,7 @@
         <v>917</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>666</v>
@@ -4899,7 +4899,7 @@
         <v>918</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>667</v>
@@ -4911,7 +4911,7 @@
         <v>919</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>668</v>
@@ -4920,10 +4920,10 @@
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A14" s="21" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>1369</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>1370</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="13"/>
@@ -4942,10 +4942,10 @@
     </row>
     <row r="16" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>972</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>969</v>
@@ -4970,10 +4970,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="21" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>974</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="21" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>975</v>
@@ -4998,10 +4998,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="21" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>976</v>
@@ -5012,10 +5012,10 @@
     </row>
     <row r="21" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A21" s="21" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>977</v>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="21" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>978</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="23" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A23" s="21" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>1306</v>
@@ -5061,7 +5061,7 @@
         <v>1318</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1319</v>
+        <v>1376</v>
       </c>
       <c r="D25" s="13"/>
     </row>
@@ -5078,18 +5078,18 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="21" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>1365</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>1367</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>1368</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +5598,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>1002</v>
@@ -5613,7 +5613,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>1002</v>
@@ -5628,7 +5628,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>1002</v>
@@ -5643,7 +5643,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>1002</v>
@@ -5658,7 +5658,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>1002</v>
@@ -5673,7 +5673,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>1002</v>
@@ -6854,7 +6854,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>1002</v>
@@ -6869,7 +6869,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>1002</v>
@@ -6884,7 +6884,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>1002</v>
@@ -6899,7 +6899,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>1002</v>
@@ -6914,7 +6914,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>1002</v>
@@ -6929,7 +6929,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>1002</v>
@@ -8614,10 +8614,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="22" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>1363</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>1364</v>
       </c>
       <c r="C72" s="17"/>
     </row>
@@ -9755,7 +9755,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>1002</v>
@@ -9769,7 +9769,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>1002</v>
@@ -9783,7 +9783,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>1002</v>
@@ -9797,7 +9797,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>1002</v>
@@ -9811,7 +9811,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>1002</v>
@@ -9825,7 +9825,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>1002</v>
@@ -16823,7 +16823,7 @@
         <v>1002</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>1003</v>
@@ -16831,24 +16831,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B7" s="27">
         <v>0</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B8" s="27">
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
